--- a/bamqc_stats.xlsx
+++ b/bamqc_stats.xlsx
@@ -872,7 +872,7 @@
         <v>0.0798203604525634</v>
       </c>
       <c r="H9" s="1">
-        <v>4.728261441909117E-06</v>
+        <v>4.728261441909117e-06</v>
       </c>
       <c r="I9" s="1">
         <v>0.4537409162717219</v>
@@ -972,7 +972,7 @@
         <v>0.08892011451849212</v>
       </c>
       <c r="H11" s="1">
-        <v>8.596838985289304E-07</v>
+        <v>8.596838985289304e-07</v>
       </c>
       <c r="I11" s="1">
         <v>0.454014902476441</v>
@@ -1410,7 +1410,7 @@
         <v>0.0212966618365757</v>
       </c>
       <c r="H6" s="1">
-        <v>2.454843707911983E-06</v>
+        <v>2.454843707911983e-06</v>
       </c>
       <c r="I6" s="1">
         <v>0.4578385305425032</v>
@@ -1560,7 +1560,7 @@
         <v>0.02818562278380616</v>
       </c>
       <c r="H9" s="1">
-        <v>6.025525464874869E-06</v>
+        <v>6.025525464874869e-06</v>
       </c>
       <c r="I9" s="1">
         <v>0.4570739681242337</v>
@@ -1607,7 +1607,7 @@
         <v>0.003740289140418622</v>
       </c>
       <c r="G10" s="1">
-        <v>2.053142010253659E-05</v>
+        <v>2.053142010253659e-05</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0.1160168106598594</v>
       </c>
       <c r="H11" s="1">
-        <v>7.75254331171797E-05</v>
+        <v>7.75254331171797e-05</v>
       </c>
       <c r="I11" s="1">
         <v>0.3332984940436053</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>4.71980954529533E-05</v>
+        <v>4.71980954529533e-05</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>6.827397455458653E-06</v>
+        <v>6.827397455458653e-06</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0.00990121052725319</v>
       </c>
       <c r="H7" s="1">
-        <v>2.671590308657734E-06</v>
+        <v>2.671590308657734e-06</v>
       </c>
       <c r="I7" s="1">
         <v>0.6088968997837056</v>
@@ -3268,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>4.630756535006738E-05</v>
+        <v>4.630756535006738e-05</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0.0006070446868005628</v>
       </c>
       <c r="G12" s="1">
-        <v>3.769910768883691E-05</v>
+        <v>3.769910768883691e-05</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>

--- a/bamqc_stats.xlsx
+++ b/bamqc_stats.xlsx
@@ -872,7 +872,7 @@
         <v>0.0798203604525634</v>
       </c>
       <c r="H9" s="1">
-        <v>4.728261441909117e-06</v>
+        <v>4.728261441909117E-06</v>
       </c>
       <c r="I9" s="1">
         <v>0.4537409162717219</v>
@@ -972,7 +972,7 @@
         <v>0.08892011451849212</v>
       </c>
       <c r="H11" s="1">
-        <v>8.596838985289304e-07</v>
+        <v>8.596838985289304E-07</v>
       </c>
       <c r="I11" s="1">
         <v>0.454014902476441</v>
@@ -1410,7 +1410,7 @@
         <v>0.0212966618365757</v>
       </c>
       <c r="H6" s="1">
-        <v>2.454843707911983e-06</v>
+        <v>2.454843707911983E-06</v>
       </c>
       <c r="I6" s="1">
         <v>0.4578385305425032</v>
@@ -1560,7 +1560,7 @@
         <v>0.02818562278380616</v>
       </c>
       <c r="H9" s="1">
-        <v>6.025525464874869e-06</v>
+        <v>6.025525464874869E-06</v>
       </c>
       <c r="I9" s="1">
         <v>0.4570739681242337</v>
@@ -1607,7 +1607,7 @@
         <v>0.003740289140418622</v>
       </c>
       <c r="G10" s="1">
-        <v>2.053142010253659e-05</v>
+        <v>2.053142010253659E-05</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -2536,7 +2536,7 @@
         <v>0.1160168106598594</v>
       </c>
       <c r="H11" s="1">
-        <v>7.75254331171797e-05</v>
+        <v>7.75254331171797E-05</v>
       </c>
       <c r="I11" s="1">
         <v>0.3332984940436053</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>4.71980954529533e-05</v>
+        <v>4.71980954529533E-05</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="1">
-        <v>6.827397455458653e-06</v>
+        <v>6.827397455458653E-06</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0.00990121052725319</v>
       </c>
       <c r="H7" s="1">
-        <v>2.671590308657734e-06</v>
+        <v>2.671590308657734E-06</v>
       </c>
       <c r="I7" s="1">
         <v>0.6088968997837056</v>
@@ -3268,7 +3268,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="1">
-        <v>4.630756535006738e-05</v>
+        <v>4.630756535006738E-05</v>
       </c>
       <c r="G10" s="1">
         <v>0</v>
@@ -3371,7 +3371,7 @@
         <v>0.0006070446868005628</v>
       </c>
       <c r="G12" s="1">
-        <v>3.769910768883691e-05</v>
+        <v>3.769910768883691E-05</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
